--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fgf1</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Fgf1</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H2">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I2">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J2">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N2">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O2">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P2">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q2">
-        <v>55.75273693812699</v>
+        <v>160.14475787984</v>
       </c>
       <c r="R2">
-        <v>223.0109477525079</v>
+        <v>640.5790315193599</v>
       </c>
       <c r="S2">
-        <v>0.01726818679308378</v>
+        <v>0.04788940857052895</v>
       </c>
       <c r="T2">
-        <v>0.01184497628841616</v>
+        <v>0.03590364968258556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H3">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I3">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J3">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P3">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q3">
-        <v>14.19501223506633</v>
+        <v>42.01581848125867</v>
       </c>
       <c r="R3">
-        <v>85.170073410398</v>
+        <v>252.094910887552</v>
       </c>
       <c r="S3">
-        <v>0.004396593535439624</v>
+        <v>0.01256433694310436</v>
       </c>
       <c r="T3">
-        <v>0.004523712894796586</v>
+        <v>0.01412960294032937</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H4">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I4">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J4">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N4">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O4">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P4">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q4">
-        <v>42.62063592535149</v>
+        <v>86.24865712200533</v>
       </c>
       <c r="R4">
-        <v>255.723815552109</v>
+        <v>517.491942732032</v>
       </c>
       <c r="S4">
-        <v>0.01320080668354919</v>
+        <v>0.02579164772083455</v>
       </c>
       <c r="T4">
-        <v>0.01358248356022232</v>
+        <v>0.02900477304313695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H5">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I5">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J5">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N5">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O5">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P5">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q5">
-        <v>10.01245893585975</v>
+        <v>42.718802087552</v>
       </c>
       <c r="R5">
-        <v>40.04983574343899</v>
+        <v>170.875208350208</v>
       </c>
       <c r="S5">
-        <v>0.003101139435618807</v>
+        <v>0.01277455593238546</v>
       </c>
       <c r="T5">
-        <v>0.002127202092618621</v>
+        <v>0.009577340684245097</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H6">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I6">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J6">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N6">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O6">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P6">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q6">
-        <v>43.11399967184366</v>
+        <v>29.39295132737067</v>
       </c>
       <c r="R6">
-        <v>258.6839980310619</v>
+        <v>176.357707964224</v>
       </c>
       <c r="S6">
-        <v>0.01335361527733746</v>
+        <v>0.008789616805729513</v>
       </c>
       <c r="T6">
-        <v>0.0137397103314905</v>
+        <v>0.009884627897595899</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H7">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I7">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J7">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N7">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O7">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P7">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q7">
-        <v>36.90803535929049</v>
+        <v>146.4344173760853</v>
       </c>
       <c r="R7">
-        <v>221.448212155743</v>
+        <v>878.606504256512</v>
       </c>
       <c r="S7">
-        <v>0.01143145401915008</v>
+        <v>0.04378949230278559</v>
       </c>
       <c r="T7">
-        <v>0.01176197334046543</v>
+        <v>0.04924479039353874</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H8">
         <v>1.582565</v>
       </c>
       <c r="I8">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J8">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N8">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O8">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P8">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q8">
-        <v>56.79461056519666</v>
+        <v>55.11586201219167</v>
       </c>
       <c r="R8">
-        <v>340.76766339118</v>
+        <v>330.69517207315</v>
       </c>
       <c r="S8">
-        <v>0.01759088428553142</v>
+        <v>0.01648175107048581</v>
       </c>
       <c r="T8">
-        <v>0.01809949212541344</v>
+        <v>0.0185350488005755</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H9">
         <v>1.582565</v>
       </c>
       <c r="I9">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J9">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P9">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q9">
-        <v>14.46028008909222</v>
+        <v>14.46028008909223</v>
       </c>
       <c r="R9">
         <v>130.14252080183</v>
       </c>
       <c r="S9">
-        <v>0.004478754432017726</v>
+        <v>0.004324176890950221</v>
       </c>
       <c r="T9">
-        <v>0.006912373982299474</v>
+        <v>0.007294324737097318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H10">
         <v>1.582565</v>
       </c>
       <c r="I10">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J10">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N10">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O10">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P10">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q10">
-        <v>43.41710474425167</v>
+        <v>29.68357595719779</v>
       </c>
       <c r="R10">
-        <v>390.753942698265</v>
+        <v>267.1521836147801</v>
       </c>
       <c r="S10">
-        <v>0.01344749542198545</v>
+        <v>0.008876524687215663</v>
       </c>
       <c r="T10">
-        <v>0.0207544572699751</v>
+        <v>0.01497354415378323</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H11">
         <v>1.582565</v>
       </c>
       <c r="I11">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J11">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N11">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O11">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P11">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q11">
-        <v>10.1995657485525</v>
+        <v>14.70222086788667</v>
       </c>
       <c r="R11">
-        <v>61.19739449131499</v>
+        <v>88.21332520732003</v>
       </c>
       <c r="S11">
-        <v>0.003159091664859546</v>
+        <v>0.004396526438690352</v>
       </c>
       <c r="T11">
-        <v>0.003250430949546619</v>
+        <v>0.004944246017649881</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H12">
         <v>1.582565</v>
       </c>
       <c r="I12">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J12">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N12">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O12">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P12">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q12">
-        <v>43.91968817580778</v>
+        <v>10.11595927920389</v>
       </c>
       <c r="R12">
-        <v>395.27719358227</v>
+        <v>91.04363351283503</v>
       </c>
       <c r="S12">
-        <v>0.01360315961089964</v>
+        <v>0.003025058786926512</v>
       </c>
       <c r="T12">
-        <v>0.02099470466593279</v>
+        <v>0.005102881241244225</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H13">
         <v>1.582565</v>
       </c>
       <c r="I13">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J13">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N13">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O13">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P13">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q13">
-        <v>37.59775053346167</v>
+        <v>50.39727337183113</v>
       </c>
       <c r="R13">
-        <v>338.379754801155</v>
+        <v>453.5754603464801</v>
       </c>
       <c r="S13">
-        <v>0.01164507815880138</v>
+        <v>0.01507071256840737</v>
       </c>
       <c r="T13">
-        <v>0.01797266103970754</v>
+        <v>0.02542233453110668</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H14">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I14">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J14">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N14">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O14">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P14">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q14">
-        <v>673.111120955204</v>
+        <v>841.1097804369</v>
       </c>
       <c r="R14">
-        <v>2692.444483820816</v>
+        <v>3364.4391217476</v>
       </c>
       <c r="S14">
-        <v>0.2084813985375434</v>
+        <v>0.2515239990448749</v>
       </c>
       <c r="T14">
-        <v>0.1430061680385635</v>
+        <v>0.1885725845866388</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H15">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I15">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J15">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P15">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q15">
-        <v>171.3785030521827</v>
+        <v>220.67482148972</v>
       </c>
       <c r="R15">
-        <v>1028.271018313096</v>
+        <v>1324.04892893832</v>
       </c>
       <c r="S15">
-        <v>0.0530807304815983</v>
+        <v>0.06599021302638659</v>
       </c>
       <c r="T15">
-        <v>0.05461546149519554</v>
+        <v>0.07421127849666016</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H16">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I16">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J16">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N16">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O16">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P16">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q16">
-        <v>514.565303858978</v>
+        <v>452.9938414175201</v>
       </c>
       <c r="R16">
-        <v>3087.391823153868</v>
+        <v>2717.96304850512</v>
       </c>
       <c r="S16">
-        <v>0.1593753109221844</v>
+        <v>0.1354624868074308</v>
       </c>
       <c r="T16">
-        <v>0.1639833528661206</v>
+        <v>0.1523384131264542</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H17">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I17">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J17">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N17">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O17">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P17">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q17">
-        <v>120.881912314257</v>
+        <v>224.36702093832</v>
       </c>
       <c r="R17">
-        <v>483.527649257028</v>
+        <v>897.4680837532801</v>
       </c>
       <c r="S17">
-        <v>0.03744051962981336</v>
+        <v>0.06709432189800235</v>
       </c>
       <c r="T17">
-        <v>0.02568202860874436</v>
+        <v>0.05030195822044369</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H18">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I18">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J18">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N18">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O18">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P18">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q18">
-        <v>520.5217580651373</v>
+        <v>154.37719701014</v>
       </c>
       <c r="R18">
-        <v>3123.130548390824</v>
+        <v>926.2631820608402</v>
       </c>
       <c r="S18">
-        <v>0.1612201919003247</v>
+        <v>0.04616468724589029</v>
       </c>
       <c r="T18">
-        <v>0.1658815751609281</v>
+        <v>0.05191588729295502</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H19">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I19">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J19">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N19">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O19">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P19">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q19">
-        <v>445.596223922006</v>
+        <v>769.1005455203201</v>
       </c>
       <c r="R19">
-        <v>2673.577343532036</v>
+        <v>4614.60327312192</v>
       </c>
       <c r="S19">
-        <v>0.1380136519130407</v>
+        <v>0.2299904832593707</v>
       </c>
       <c r="T19">
-        <v>0.1420040610496329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H20">
-        <v>2.864657</v>
-      </c>
-      <c r="I20">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J20">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>107.663086</v>
-      </c>
-      <c r="N20">
-        <v>215.326172</v>
-      </c>
-      <c r="O20">
-        <v>0.2751823527645522</v>
-      </c>
-      <c r="P20">
-        <v>0.2057131686791961</v>
-      </c>
-      <c r="Q20">
-        <v>102.8059376505007</v>
-      </c>
-      <c r="R20">
-        <v>616.835625903004</v>
-      </c>
-      <c r="S20">
-        <v>0.03184188314839365</v>
-      </c>
-      <c r="T20">
-        <v>0.032762532226803</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H21">
-        <v>2.864657</v>
-      </c>
-      <c r="I21">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J21">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>27.41172733333334</v>
-      </c>
-      <c r="N21">
-        <v>82.23518200000001</v>
-      </c>
-      <c r="O21">
-        <v>0.07006323059444027</v>
-      </c>
-      <c r="P21">
-        <v>0.07856388152449202</v>
-      </c>
-      <c r="Q21">
-        <v>26.17506552917489</v>
-      </c>
-      <c r="R21">
-        <v>235.5755897625741</v>
-      </c>
-      <c r="S21">
-        <v>0.008107152145384617</v>
-      </c>
-      <c r="T21">
-        <v>0.01251233315220042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H22">
-        <v>2.864657</v>
-      </c>
-      <c r="I22">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J22">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>82.303927</v>
-      </c>
-      <c r="N22">
-        <v>246.911781</v>
-      </c>
-      <c r="O22">
-        <v>0.2103654011331419</v>
-      </c>
-      <c r="P22">
-        <v>0.2358886724356653</v>
-      </c>
-      <c r="Q22">
-        <v>78.59084020267967</v>
-      </c>
-      <c r="R22">
-        <v>707.3175618241171</v>
-      </c>
-      <c r="S22">
-        <v>0.02434178810542289</v>
-      </c>
-      <c r="T22">
-        <v>0.03756837873934724</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H23">
-        <v>2.864657</v>
-      </c>
-      <c r="I23">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J23">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>19.3348755</v>
-      </c>
-      <c r="N23">
-        <v>38.669751</v>
-      </c>
-      <c r="O23">
-        <v>0.04941913452582716</v>
-      </c>
-      <c r="P23">
-        <v>0.03694338192314825</v>
-      </c>
-      <c r="Q23">
-        <v>18.4625954817345</v>
-      </c>
-      <c r="R23">
-        <v>110.775572890407</v>
-      </c>
-      <c r="S23">
-        <v>0.005718383795535447</v>
-      </c>
-      <c r="T23">
-        <v>0.005883720272238656</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H24">
-        <v>2.864657</v>
-      </c>
-      <c r="I24">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J24">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>83.25665266666667</v>
-      </c>
-      <c r="N24">
-        <v>249.769958</v>
-      </c>
-      <c r="O24">
-        <v>0.2128005281598046</v>
-      </c>
-      <c r="P24">
-        <v>0.2386192492246122</v>
-      </c>
-      <c r="Q24">
-        <v>79.50058428604513</v>
-      </c>
-      <c r="R24">
-        <v>715.5052585744061</v>
-      </c>
-      <c r="S24">
-        <v>0.02462356137124285</v>
-      </c>
-      <c r="T24">
-        <v>0.03800325906626081</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H25">
-        <v>2.864657</v>
-      </c>
-      <c r="I25">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J25">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>71.272429</v>
-      </c>
-      <c r="N25">
-        <v>213.817287</v>
-      </c>
-      <c r="O25">
-        <v>0.1821693528222338</v>
-      </c>
-      <c r="P25">
-        <v>0.2042716462128862</v>
-      </c>
-      <c r="Q25">
-        <v>68.05702088061767</v>
-      </c>
-      <c r="R25">
-        <v>612.513187925559</v>
-      </c>
-      <c r="S25">
-        <v>0.02107916873124167</v>
-      </c>
-      <c r="T25">
-        <v>0.03253295078308031</v>
+        <v>0.2586427141539597</v>
       </c>
     </row>
   </sheetData>
